--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>25.6802809782413</v>
+        <v>16.84551633333333</v>
       </c>
       <c r="H2">
-        <v>25.6802809782413</v>
+        <v>50.536549</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3673693131813943</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3673693131813943</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>59.775647224314</v>
+        <v>27.14255766666667</v>
       </c>
       <c r="N2">
-        <v>59.775647224314</v>
+        <v>81.427673</v>
       </c>
       <c r="O2">
-        <v>0.6957493350671766</v>
+        <v>0.236433443568822</v>
       </c>
       <c r="P2">
-        <v>0.6957493350671766</v>
+        <v>0.2364334435688221</v>
       </c>
       <c r="Q2">
-        <v>1535.055416376613</v>
+        <v>457.2303985022752</v>
       </c>
       <c r="R2">
-        <v>1535.055416376613</v>
+        <v>4115.073586520477</v>
       </c>
       <c r="S2">
-        <v>0.6957493350671766</v>
+        <v>0.0868583917769901</v>
       </c>
       <c r="T2">
-        <v>0.6957493350671766</v>
+        <v>0.08685839177699012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>16.84551633333333</v>
+      </c>
+      <c r="H3">
+        <v>50.536549</v>
+      </c>
+      <c r="I3">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="J3">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>60.74830866666667</v>
+      </c>
+      <c r="N3">
+        <v>182.244926</v>
+      </c>
+      <c r="O3">
+        <v>0.5291664840664813</v>
+      </c>
+      <c r="P3">
+        <v>0.5291664840664814</v>
+      </c>
+      <c r="Q3">
+        <v>1023.336625866708</v>
+      </c>
+      <c r="R3">
+        <v>9210.029632800373</v>
+      </c>
+      <c r="S3">
+        <v>0.1943995278101165</v>
+      </c>
+      <c r="T3">
+        <v>0.1943995278101165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>16.84551633333333</v>
+      </c>
+      <c r="H4">
+        <v>50.536549</v>
+      </c>
+      <c r="I4">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="J4">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.007144666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.021434</v>
+      </c>
+      <c r="O4">
+        <v>6.223577615258798E-05</v>
+      </c>
+      <c r="P4">
+        <v>6.223577615258799E-05</v>
+      </c>
+      <c r="Q4">
+        <v>0.1203555990295556</v>
+      </c>
+      <c r="R4">
+        <v>1.083200391266</v>
+      </c>
+      <c r="S4">
+        <v>2.286351434048725E-05</v>
+      </c>
+      <c r="T4">
+        <v>2.286351434048725E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>25.6802809782413</v>
-      </c>
-      <c r="H3">
-        <v>25.6802809782413</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>26.1398459159597</v>
-      </c>
-      <c r="N3">
-        <v>26.1398459159597</v>
-      </c>
-      <c r="O3">
-        <v>0.3042506649328234</v>
-      </c>
-      <c r="P3">
-        <v>0.3042506649328234</v>
-      </c>
-      <c r="Q3">
-        <v>671.2785878497784</v>
-      </c>
-      <c r="R3">
-        <v>671.2785878497784</v>
-      </c>
-      <c r="S3">
-        <v>0.3042506649328234</v>
-      </c>
-      <c r="T3">
-        <v>0.3042506649328234</v>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>16.84551633333333</v>
+      </c>
+      <c r="H5">
+        <v>50.536549</v>
+      </c>
+      <c r="I5">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="J5">
+        <v>0.3673693131813943</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>26.901982</v>
+      </c>
+      <c r="N5">
+        <v>80.705946</v>
+      </c>
+      <c r="O5">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="P5">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="Q5">
+        <v>453.1777771800393</v>
+      </c>
+      <c r="R5">
+        <v>4078.599994620354</v>
+      </c>
+      <c r="S5">
+        <v>0.08608853007994724</v>
+      </c>
+      <c r="T5">
+        <v>0.08608853007994724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.133209</v>
+      </c>
+      <c r="H6">
+        <v>0.399627</v>
+      </c>
+      <c r="I6">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="J6">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>27.14255766666667</v>
+      </c>
+      <c r="N6">
+        <v>81.427673</v>
+      </c>
+      <c r="O6">
+        <v>0.236433443568822</v>
+      </c>
+      <c r="P6">
+        <v>0.2364334435688221</v>
+      </c>
+      <c r="Q6">
+        <v>3.615632964218999</v>
+      </c>
+      <c r="R6">
+        <v>32.540696677971</v>
+      </c>
+      <c r="S6">
+        <v>0.0006868486118959809</v>
+      </c>
+      <c r="T6">
+        <v>0.0006868486118959811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133209</v>
+      </c>
+      <c r="H7">
+        <v>0.399627</v>
+      </c>
+      <c r="I7">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="J7">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>60.74830866666667</v>
+      </c>
+      <c r="N7">
+        <v>182.244926</v>
+      </c>
+      <c r="O7">
+        <v>0.5291664840664813</v>
+      </c>
+      <c r="P7">
+        <v>0.5291664840664814</v>
+      </c>
+      <c r="Q7">
+        <v>8.092221449178</v>
+      </c>
+      <c r="R7">
+        <v>72.829993042602</v>
+      </c>
+      <c r="S7">
+        <v>0.001537249805090043</v>
+      </c>
+      <c r="T7">
+        <v>0.001537249805090044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.133209</v>
+      </c>
+      <c r="H8">
+        <v>0.399627</v>
+      </c>
+      <c r="I8">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="J8">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.007144666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.021434</v>
+      </c>
+      <c r="O8">
+        <v>6.223577615258798E-05</v>
+      </c>
+      <c r="P8">
+        <v>6.223577615258799E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.000951733902</v>
+      </c>
+      <c r="R8">
+        <v>0.008565605118000001</v>
+      </c>
+      <c r="S8">
+        <v>1.807974194151226E-07</v>
+      </c>
+      <c r="T8">
+        <v>1.807974194151227E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.133209</v>
+      </c>
+      <c r="H9">
+        <v>0.399627</v>
+      </c>
+      <c r="I9">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="J9">
+        <v>0.002905040004190652</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.901982</v>
+      </c>
+      <c r="N9">
+        <v>80.705946</v>
+      </c>
+      <c r="O9">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="P9">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="Q9">
+        <v>3.583586120238</v>
+      </c>
+      <c r="R9">
+        <v>32.252275082142</v>
+      </c>
+      <c r="S9">
+        <v>0.0006807607897852121</v>
+      </c>
+      <c r="T9">
+        <v>0.0006807607897852123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.87572066666667</v>
+      </c>
+      <c r="H10">
+        <v>86.627162</v>
+      </c>
+      <c r="I10">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="J10">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>27.14255766666667</v>
+      </c>
+      <c r="N10">
+        <v>81.427673</v>
+      </c>
+      <c r="O10">
+        <v>0.236433443568822</v>
+      </c>
+      <c r="P10">
+        <v>0.2364334435688221</v>
+      </c>
+      <c r="Q10">
+        <v>783.7609133615584</v>
+      </c>
+      <c r="R10">
+        <v>7053.848220254025</v>
+      </c>
+      <c r="S10">
+        <v>0.148888203179936</v>
+      </c>
+      <c r="T10">
+        <v>0.148888203179936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>28.87572066666667</v>
+      </c>
+      <c r="H11">
+        <v>86.627162</v>
+      </c>
+      <c r="I11">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="J11">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60.74830866666667</v>
+      </c>
+      <c r="N11">
+        <v>182.244926</v>
+      </c>
+      <c r="O11">
+        <v>0.5291664840664813</v>
+      </c>
+      <c r="P11">
+        <v>0.5291664840664814</v>
+      </c>
+      <c r="Q11">
+        <v>1754.151192031112</v>
+      </c>
+      <c r="R11">
+        <v>15787.36072828001</v>
+      </c>
+      <c r="S11">
+        <v>0.3332297064512748</v>
+      </c>
+      <c r="T11">
+        <v>0.3332297064512749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>28.87572066666667</v>
+      </c>
+      <c r="H12">
+        <v>86.627162</v>
+      </c>
+      <c r="I12">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="J12">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.007144666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.021434</v>
+      </c>
+      <c r="O12">
+        <v>6.223577615258798E-05</v>
+      </c>
+      <c r="P12">
+        <v>6.223577615258799E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.2063073989231111</v>
+      </c>
+      <c r="R12">
+        <v>1.856766590308</v>
+      </c>
+      <c r="S12">
+        <v>3.919146439268561E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.919146439268563E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>28.87572066666667</v>
+      </c>
+      <c r="H13">
+        <v>86.627162</v>
+      </c>
+      <c r="I13">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="J13">
+        <v>0.6297256468144151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.901982</v>
+      </c>
+      <c r="N13">
+        <v>80.705946</v>
+      </c>
+      <c r="O13">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="P13">
+        <v>0.234337836588544</v>
+      </c>
+      <c r="Q13">
+        <v>776.8141176116947</v>
+      </c>
+      <c r="R13">
+        <v>6991.327058505251</v>
+      </c>
+      <c r="S13">
+        <v>0.1475685457188116</v>
+      </c>
+      <c r="T13">
+        <v>0.1475685457188116</v>
       </c>
     </row>
   </sheetData>
